--- a/Test/Epsilon/MSE1000009.xlsx
+++ b/Test/Epsilon/MSE1000009.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,34 +432,31 @@
         <v>0.2454309533264996</v>
       </c>
       <c r="D1" t="n">
-        <v>0.2321807362205154</v>
+        <v>0.1139387021627809</v>
       </c>
       <c r="E1" t="n">
-        <v>0.2287947755503785</v>
+        <v>0.1073530421838629</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2169178791816006</v>
+        <v>0.0980827888634685</v>
       </c>
       <c r="G1" t="n">
-        <v>0.2095330305569744</v>
+        <v>0.09679736729604639</v>
       </c>
       <c r="H1" t="n">
-        <v>0.208710574670572</v>
+        <v>0.09393248113587964</v>
       </c>
       <c r="I1" t="n">
-        <v>0.2010213170566877</v>
+        <v>0.08988237774209758</v>
       </c>
       <c r="J1" t="n">
-        <v>0.1789004695788165</v>
+        <v>0.089471690868568</v>
       </c>
       <c r="K1" t="n">
-        <v>0.1478030470880145</v>
+        <v>0.08910037854776527</v>
       </c>
       <c r="L1" t="n">
-        <v>0.108735518834632</v>
-      </c>
-      <c r="M1" t="n">
-        <v>0.08458963723296245</v>
+        <v>0.08905160678239897</v>
       </c>
     </row>
   </sheetData>
